--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
@@ -17,6 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'生产贸易类 -新模板'!$A$1:$E$50</definedName>
     <definedName name="加工贸易">'生产贸易类 -新模板'!$B$8</definedName>
+    <definedName name="转口贸易">'生产贸易类 -新模板'!$B$8</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
-  <si>
-    <t>备注</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>明细</t>
   </si>
@@ -338,15 +336,66 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">加工贸易 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 一般贸易 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>转口贸易</t>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一般贸易</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加工贸易</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转口贸易</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +567,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -531,6 +581,13 @@
       <color theme="1"/>
       <name val="Wingdings 2"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -885,9 +942,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1053,6 +1107,33 @@
     <xf numFmtId="176" fontId="24" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1065,9 +1146,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1077,29 +1155,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="25" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1455,7 +1512,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1471,511 +1528,504 @@
   <sheetData>
     <row r="1" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="76" t="s">
-        <v>30</v>
+      <c r="E2" s="68" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="77"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
+      <c r="A4" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="63"/>
+        <v>55</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
+        <v>40</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>73</v>
+      <c r="E8" s="65" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>0</v>
       </c>
+      <c r="C9" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="83"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="13"/>
+      <c r="F10" s="38"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="67"/>
+      <c r="B11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="13"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="67"/>
+      <c r="B12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="14"/>
-      <c r="F10" s="39"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="14"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="57">
+      <c r="C12" s="56">
         <f>C10*C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="67"/>
+      <c r="B14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="67"/>
+      <c r="B15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="14"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="67"/>
+      <c r="B16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="14"/>
+      <c r="F16" s="1"/>
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="16"/>
+      <c r="F17" s="1"/>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="37"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="67"/>
+      <c r="B19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72" t="s">
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="67"/>
+      <c r="B20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="67"/>
+      <c r="B21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="67"/>
+      <c r="B22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="67"/>
+      <c r="B23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="67"/>
+      <c r="B24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="67"/>
+      <c r="B25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="67"/>
+      <c r="B26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="67"/>
+      <c r="B27" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="15"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="15"/>
-      <c r="F16" s="1"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="17"/>
-      <c r="F17" s="1"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="38"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="72"/>
-      <c r="B23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="72"/>
-      <c r="B25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="16" t="s">
+      <c r="C28" s="47"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="67"/>
+      <c r="B29" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:10" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="54">
+      <c r="C30" s="58"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="53">
         <f>SUM(C13:C30)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="33"/>
-    </row>
-    <row r="32" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="55">
+      <c r="D31" s="32"/>
+    </row>
+    <row r="32" spans="1:10" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="54">
         <f>C12-C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="28"/>
-    </row>
-    <row r="33" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="56">
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="55">
         <f>IF(C12&lt;&gt;0,C32/C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="28"/>
-    </row>
-    <row r="34" spans="1:5" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="21" t="s">
+      <c r="D33" s="27"/>
+    </row>
+    <row r="34" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="80"/>
+      <c r="B36" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="22"/>
-    </row>
-    <row r="36" spans="1:5" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="21" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="80"/>
+      <c r="B37" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="73"/>
-      <c r="B37" s="21" t="s">
+      <c r="C37" s="60"/>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="80"/>
+      <c r="B38" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" spans="1:5" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
-      <c r="B38" s="21" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="80"/>
+      <c r="B39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="73"/>
-      <c r="B39" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="22"/>
-    </row>
-    <row r="40" spans="1:5" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="50">
+      <c r="C39" s="60"/>
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="1:5" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="82"/>
+      <c r="C40" s="49">
         <f>C12*0.2</f>
         <v>0</v>
       </c>
-      <c r="D40" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="51">
+      <c r="D40" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="79"/>
+      <c r="C41" s="50">
         <f>C12-C31-C34-C35-C36-C37-C38-C39-C40</f>
         <v>0</v>
       </c>
-      <c r="D41" s="29"/>
-    </row>
-    <row r="42" spans="1:5" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="62">
+      <c r="D41" s="28"/>
+    </row>
+    <row r="42" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="61">
         <f>C41*0.2</f>
         <v>0</v>
       </c>
-      <c r="D42" s="22"/>
-    </row>
-    <row r="43" spans="1:5" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="52">
+      <c r="D42" s="21"/>
+    </row>
+    <row r="43" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="79"/>
+      <c r="C43" s="51">
         <f>C41-C42</f>
         <v>0</v>
       </c>
-      <c r="D43" s="45"/>
-    </row>
-    <row r="44" spans="1:5" s="20" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="53" t="e">
+      <c r="D43" s="44"/>
+    </row>
+    <row r="44" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="77"/>
+      <c r="C44" s="52" t="e">
         <f>C43/C12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="30"/>
-    </row>
-    <row r="45" spans="1:5" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="36"/>
+      <c r="E44" s="29"/>
+    </row>
+    <row r="45" spans="1:5" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="D45" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="E45" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D45" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="42"/>
+        <v>34</v>
+      </c>
+      <c r="B46" s="40"/>
+      <c r="C46" s="41"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
+        <v>32</v>
+      </c>
+      <c r="B47" s="40"/>
+      <c r="C47" s="41"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
+        <v>33</v>
+      </c>
+      <c r="B48" s="40"/>
+      <c r="C48" s="41"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="42"/>
+        <v>35</v>
+      </c>
+      <c r="B49" s="42"/>
+      <c r="C49" s="41"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="36" t="s">
-        <v>63</v>
+      <c r="A50" s="35" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A18:A27"/>
@@ -1983,6 +2033,11 @@
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
@@ -104,107 +104,107 @@
   </si>
   <si>
     <t>管理费用+销售费用</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>项目报价利润核算单</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>单位：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>包括直接材料</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>含税金额</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>科瑞集团</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>合同金额（美元）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>合同金额（人民币）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>   2.其中财务费用年利率为5.5%，不包含个人提点。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>   3.国内物流费用按物流部提供数据核算。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>备注：1.汇率按实时汇率计算。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">     4.国外物流费用按大区提供数据核算。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不含企业所得税</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>采购成本-国内</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>采购成本-国外</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>项目类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>项目内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>一、项目主营收入</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>二、项目主营成本</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>出口信用险</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>代理费用</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>陆运险</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>港杂费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>三、退税额</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>四、物流成本</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>五、项目保险</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -236,7 +236,7 @@
       </rPr>
       <t>汇率；</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -253,150 +253,99 @@
   </si>
   <si>
     <t>毛利率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>毛利润</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>项目收入*2%</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>国家：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>六、项目管理费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>差旅费、业务费等</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>陆运费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>包含资金占用费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>八、财务费用</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>项目成本小计</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">     5.含税金额为含增值税金额，不含税金额为剔除增值税金额</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>报价利润率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>汇率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提点费用</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>七、1、市场费用</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>七、2、市场费用</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>市场提点前报价利润</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>市场提点后报价利润</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>商务技术经办人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>事业部审核人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一般贸易</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Wingdings 2"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加工贸易</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Wingdings 2"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转口贸易</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">加工贸易 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一般贸易 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  转口贸易</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">√ </t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -415,6 +364,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -572,22 +529,18 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Wingdings 2"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Wingdings 2"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体 (正文)"/>
       <family val="1"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -895,13 +848,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -909,254 +862,254 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="24" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1528,21 +1481,21 @@
   <sheetData>
     <row r="1" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="69" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="69"/>
+      <c r="E3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
@@ -1570,26 +1523,26 @@
       <c r="A7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
-    </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="66" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="67" t="s">
         <v>75</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1602,10 +1555,10 @@
       <c r="C9" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="83"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1616,7 +1569,7 @@
       <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="12" t="s">
         <v>64</v>
       </c>
@@ -1625,7 +1578,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="67"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1639,7 +1592,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="68" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -1652,7 +1605,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="67"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="12" t="s">
         <v>38</v>
       </c>
@@ -1663,7 +1616,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="67"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
@@ -1672,7 +1625,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="67"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
@@ -1694,7 +1647,7 @@
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="68" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -1707,7 +1660,7 @@
       <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="15" t="s">
         <v>45</v>
       </c>
@@ -1717,7 +1670,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="67"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="15" t="s">
         <v>46</v>
       </c>
@@ -1727,7 +1680,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="15" t="s">
         <v>15</v>
       </c>
@@ -1737,7 +1690,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="67"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="15" t="s">
         <v>16</v>
       </c>
@@ -1747,7 +1700,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="67"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="15" t="s">
         <v>17</v>
       </c>
@@ -1757,7 +1710,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="67"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="15" t="s">
         <v>18</v>
       </c>
@@ -1767,7 +1720,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="67"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="15" t="s">
         <v>19</v>
       </c>
@@ -1777,7 +1730,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="67"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="15" t="s">
         <v>20</v>
       </c>
@@ -1787,7 +1740,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="67"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="15" t="s">
         <v>21</v>
       </c>
@@ -1797,7 +1750,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="68" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -1807,7 +1760,7 @@
       <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="67"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="11" t="s">
         <v>22</v>
       </c>
@@ -1868,7 +1821,7 @@
       <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="81" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -1878,7 +1831,7 @@
       <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="80"/>
+      <c r="A36" s="81"/>
       <c r="B36" s="20" t="s">
         <v>2</v>
       </c>
@@ -1888,7 +1841,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="80"/>
+      <c r="A37" s="81"/>
       <c r="B37" s="20" t="s">
         <v>3</v>
       </c>
@@ -1896,7 +1849,7 @@
       <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="80"/>
+      <c r="A38" s="81"/>
       <c r="B38" s="20" t="s">
         <v>4</v>
       </c>
@@ -1906,7 +1859,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="80"/>
+      <c r="A39" s="81"/>
       <c r="B39" s="20" t="s">
         <v>5</v>
       </c>
@@ -1914,10 +1867,10 @@
       <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:5" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="82"/>
+      <c r="B40" s="83"/>
       <c r="C40" s="49">
         <f>C12*0.2</f>
         <v>0</v>
@@ -1927,10 +1880,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="79"/>
+      <c r="B41" s="80"/>
       <c r="C41" s="50">
         <f>C12-C31-C34-C35-C36-C37-C38-C39-C40</f>
         <v>0</v>
@@ -1951,10 +1904,10 @@
       <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="78" t="s">
+      <c r="A43" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="79"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="51">
         <f>C41-C42</f>
         <v>0</v>
@@ -1962,10 +1915,10 @@
       <c r="D43" s="44"/>
     </row>
     <row r="44" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="76" t="s">
+      <c r="A44" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="77"/>
+      <c r="B44" s="78"/>
       <c r="C44" s="52" t="e">
         <f>C43/C12</f>
         <v>#DIV/0!</v>
@@ -2039,7 +1992,7 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="A10:A12"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">

--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
+    <workbookView xWindow="360" yWindow="960" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="生产贸易类 -新模板" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>明细</t>
   </si>
@@ -104,107 +104,99 @@
   </si>
   <si>
     <t>管理费用+销售费用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>项目报价利润核算单</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>单位：</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>包括直接材料</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>含税金额</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>科瑞集团</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>合同金额（美元）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>合同金额（人民币）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>   2.其中财务费用年利率为5.5%，不包含个人提点。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>   3.国内物流费用按物流部提供数据核算。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>备注：1.汇率按实时汇率计算。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     4.国外物流费用按大区提供数据核算。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>不含企业所得税</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>采购成本-国内</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>采购成本-国外</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>项目类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>项目内容</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>一、项目主营收入</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>二、项目主营成本</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>出口信用险</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>代理费用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>陆运险</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>港杂费</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>三、退税额</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>四、物流成本</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>五、项目保险</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -236,7 +228,7 @@
       </rPr>
       <t>汇率；</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -252,100 +244,115 @@
     </r>
   </si>
   <si>
-    <t>毛利率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛利润</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>项目收入*2%</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>国家：</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>六、项目管理费</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>差旅费、业务费等</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>陆运费</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>包含资金占用费</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>八、财务费用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目成本小计</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     5.含税金额为含增值税金额，不含税金额为剔除增值税金额</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>报价利润率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>汇率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>提点费用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>七、1、市场费用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>七、2、市场费用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>市场提点前报价利润</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>市场提点后报价利润</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>商务技术经办人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>事业部审核人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">加工贸易 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 一般贸易 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  转口贸易</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">√ </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>十、后方提点费用</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目成本总计</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>     2.其中财务费用年利率为7%，不包含个人提点。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.国外物流费用按大区提供数据核算。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      5.含税金额为含增值税金额，不含税金额为剔除增值税金额</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务成本小计</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zhu</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -355,11 +362,19 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -491,13 +506,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -542,8 +550,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,8 +601,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -843,15 +864,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -862,187 +920,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -1054,61 +1079,94 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="25" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1464,8 +1522,8 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="109" zoomScaleNormal="109" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="109" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1481,463 +1539,467 @@
   <sheetData>
     <row r="1" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="64" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="70"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="12" t="s">
+      <c r="A5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="62"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="56"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
+      <c r="A7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="65"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="13"/>
-      <c r="F10" s="38"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="12"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
-      <c r="B11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="12"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="45">
         <f>C10*C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>50</v>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="14" t="s">
+      <c r="A13" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-      <c r="B14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="14" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="68"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="13"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="13"/>
       <c r="F16" s="1"/>
-      <c r="J16" s="37"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="15"/>
+      <c r="F17" s="1"/>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="60"/>
+      <c r="B19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="60"/>
+      <c r="B20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="60"/>
+      <c r="B21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="60"/>
+      <c r="B22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="60"/>
+      <c r="B23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="60"/>
+      <c r="B24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="60"/>
+      <c r="B25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="60"/>
+      <c r="B26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="60"/>
+      <c r="B27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="16"/>
-      <c r="F17" s="1"/>
-      <c r="J17" s="37"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="37"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="68"/>
-      <c r="B19" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
-      <c r="B20" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="68"/>
-      <c r="B21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="68"/>
-      <c r="B22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="68"/>
-      <c r="B23" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="68"/>
-      <c r="B24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="68"/>
-      <c r="B25" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="68"/>
-      <c r="B26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="68"/>
-      <c r="B27" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="16"/>
+      <c r="B28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="68"/>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="16"/>
-    </row>
-    <row r="31" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="53">
+      <c r="C29" s="40"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" s="26" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="81"/>
+      <c r="C31" s="80">
         <f>SUM(C13:C30)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="32"/>
-    </row>
-    <row r="32" spans="1:10" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="54">
-        <f>C12-C31</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="55">
-        <f>IF(C12&lt;&gt;0,C32/C12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="27"/>
-    </row>
-    <row r="34" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="81" t="s">
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:10" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B32" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="81"/>
-      <c r="B36" s="20" t="s">
+      <c r="C33" s="49"/>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="61"/>
+      <c r="B34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="81"/>
-      <c r="B37" s="20" t="s">
+      <c r="C34" s="46"/>
+      <c r="D34" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="61"/>
+      <c r="B35" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="81"/>
-      <c r="B38" s="20" t="s">
+      <c r="C35" s="49"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="61"/>
+      <c r="B36" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="81"/>
-      <c r="B39" s="20" t="s">
+      <c r="C36" s="49"/>
+      <c r="D36" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="61"/>
+      <c r="B37" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:5" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="82" t="s">
+      <c r="C37" s="49"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="49">
+      <c r="B38" s="63"/>
+      <c r="C38" s="41">
         <f>C12*0.2</f>
         <v>0</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="80"/>
-      <c r="C41" s="50">
-        <f>C12-C31-C34-C35-C36-C37-C38-C39-C40</f>
+      <c r="D38" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74">
+        <f>C12*0.005</f>
         <v>0</v>
       </c>
-      <c r="D41" s="28"/>
-    </row>
-    <row r="42" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="61">
+      <c r="D39" s="21"/>
+      <c r="E39" s="75"/>
+    </row>
+    <row r="40" spans="1:5" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74">
+        <f>C31+C32+C33+C34+C36+C37+C38+C39</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="75"/>
+    </row>
+    <row r="41" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="59"/>
+      <c r="C41" s="42">
+        <f>C12-C31-C32-C33-C34-C35-C36-C37-C38</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="50">
         <f>C41*0.2</f>
         <v>0</v>
       </c>
-      <c r="D42" s="21"/>
-    </row>
-    <row r="43" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="51">
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="59"/>
+      <c r="C43" s="43">
         <f>C41-C42</f>
         <v>0</v>
       </c>
-      <c r="D43" s="44"/>
-    </row>
-    <row r="44" spans="1:5" s="19" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="78"/>
-      <c r="C44" s="52" t="e">
+      <c r="D43" s="37"/>
+    </row>
+    <row r="44" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="57"/>
+      <c r="C44" s="44" t="e">
         <f>C43/C12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="29"/>
-    </row>
-    <row r="45" spans="1:5" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="29"/>
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="63" t="s">
-        <v>70</v>
+      <c r="B45" s="52" t="s">
+        <v>64</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="64" t="s">
-        <v>71</v>
+      <c r="D45" s="53" t="s">
+        <v>65</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
@@ -1945,54 +2007,57 @@
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="41"/>
+        <v>33</v>
+      </c>
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="41"/>
+      <c r="A47" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="41"/>
+        <v>32</v>
+      </c>
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="41"/>
+      <c r="A49" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="35"/>
+      <c r="C49" s="34"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="35" t="s">
-        <v>62</v>
+      <c r="A50" s="28" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
+  <mergeCells count="15">
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A31:B31"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">

--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="960" windowWidth="28800" windowHeight="16420"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="生产贸易类 -新模板" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>明细</t>
   </si>
@@ -242,10 +242,6 @@
       </rPr>
       <t xml:space="preserve">                                </t>
     </r>
-  </si>
-  <si>
-    <t>项目收入*2%</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>国家：</t>
@@ -1085,21 +1081,69 @@
     <xf numFmtId="176" fontId="25" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1109,64 +1153,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1522,8 +1518,8 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="109" zoomScaleNormal="109" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="109" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="109" zoomScaleNormal="109" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="109" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1539,25 +1535,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="65" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="65"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="36"/>
@@ -1581,26 +1577,26 @@
       <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="D8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="E8" s="55" t="s">
         <v>68</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1613,12 +1609,12 @@
       <c r="C9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="83" t="s">
-        <v>76</v>
+      <c r="D9" s="63" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="64" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1629,16 +1625,16 @@
       <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="12"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="60"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="11" t="s">
         <v>31</v>
       </c>
@@ -1652,7 +1648,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="64" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -1665,7 +1661,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="60"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="11" t="s">
         <v>36</v>
       </c>
@@ -1676,7 +1672,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="60"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="11" t="s">
         <v>12</v>
       </c>
@@ -1685,7 +1681,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="60"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1707,11 +1703,11 @@
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="64" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="15" t="s">
@@ -1720,7 +1716,7 @@
       <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="60"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="14" t="s">
         <v>43</v>
       </c>
@@ -1730,7 +1726,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="60"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="14" t="s">
         <v>44</v>
       </c>
@@ -1740,7 +1736,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="60"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="14" t="s">
         <v>15</v>
       </c>
@@ -1750,7 +1746,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="60"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="14" t="s">
         <v>16</v>
       </c>
@@ -1760,7 +1756,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="60"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="14" t="s">
         <v>17</v>
       </c>
@@ -1770,7 +1766,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="60"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="14" t="s">
         <v>18</v>
       </c>
@@ -1780,7 +1776,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="60"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="14" t="s">
         <v>19</v>
       </c>
@@ -1790,7 +1786,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="60"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="14" t="s">
         <v>20</v>
       </c>
@@ -1800,7 +1796,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="60"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="14" t="s">
         <v>21</v>
       </c>
@@ -1810,7 +1806,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="64" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -1820,7 +1816,7 @@
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="60"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="10" t="s">
         <v>22</v>
       </c>
@@ -1828,39 +1824,39 @@
       <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="59" t="s">
         <v>52</v>
-      </c>
-      <c r="B30" s="77" t="s">
-        <v>53</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:10" s="26" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="80">
+        <v>74</v>
+      </c>
+      <c r="B31" s="83"/>
+      <c r="C31" s="62">
         <f>SUM(C13:C30)</f>
         <v>0</v>
       </c>
       <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:10" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="79" t="s">
+      <c r="A32" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="61" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="48"/>
       <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="61" t="s">
-        <v>56</v>
+      <c r="A33" s="77" t="s">
+        <v>55</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>1</v>
@@ -1869,17 +1865,17 @@
       <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="61"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="46"/>
       <c r="D34" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="61"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="18" t="s">
         <v>3</v>
       </c>
@@ -1887,7 +1883,7 @@
       <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="61"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="18" t="s">
         <v>4</v>
       </c>
@@ -1897,7 +1893,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="61"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="18" t="s">
         <v>5</v>
       </c>
@@ -1905,47 +1901,45 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:5" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="41">
         <f>C12*0.2</f>
         <v>0</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>50</v>
-      </c>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:5" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="74">
+      <c r="A39" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="81"/>
+      <c r="C39" s="56">
         <f>C12*0.005</f>
         <v>0</v>
       </c>
       <c r="D39" s="21"/>
-      <c r="E39" s="75"/>
+      <c r="E39" s="57"/>
     </row>
     <row r="40" spans="1:5" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74">
+      <c r="A40" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="81"/>
+      <c r="C40" s="56">
         <f>C31+C32+C33+C34+C36+C37+C38+C39</f>
         <v>0</v>
       </c>
       <c r="D40" s="21"/>
-      <c r="E40" s="75"/>
+      <c r="E40" s="57"/>
     </row>
     <row r="41" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="59"/>
+      <c r="A41" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="76"/>
       <c r="C41" s="42">
         <f>C12-C31-C32-C33-C34-C35-C36-C37-C38</f>
         <v>0</v>
@@ -1954,10 +1948,10 @@
     </row>
     <row r="42" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="50">
         <f>C41*0.2</f>
@@ -1966,10 +1960,10 @@
       <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="59"/>
+      <c r="A43" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="76"/>
       <c r="C43" s="43">
         <f>C41-C42</f>
         <v>0</v>
@@ -1977,10 +1971,10 @@
       <c r="D43" s="37"/>
     </row>
     <row r="44" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="57"/>
+      <c r="A44" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="74"/>
       <c r="C44" s="44" t="e">
         <f>C43/C12</f>
         <v>#DIV/0!</v>
@@ -1993,13 +1987,13 @@
         <v>6</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
@@ -2015,7 +2009,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="34"/>
@@ -2029,23 +2023,18 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49" s="35"/>
       <c r="C49" s="34"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A18:A27"/>
@@ -2056,6 +2045,11 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>明细</t>
   </si>
@@ -120,10 +120,6 @@
   </si>
   <si>
     <t>含税金额</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>科瑞集团</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1105,45 +1101,21 @@
     <xf numFmtId="176" fontId="24" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1163,6 +1135,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,49 +1179,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect l="2472" t="12946" r="40071" b="30078"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28575" y="114300"/>
-          <a:ext cx="685800" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1518,8 +1471,8 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="109" zoomScaleNormal="109" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="109" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="109" zoomScaleNormal="109" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="109" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1535,25 +1488,23 @@
   <sheetData>
     <row r="1" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="65" t="s">
-        <v>29</v>
-      </c>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="66"/>
+      <c r="E3" s="77"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="36"/>
@@ -1575,28 +1526,28 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
+        <v>37</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="D8" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="E8" s="55" t="s">
         <v>67</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1610,49 +1561,49 @@
         <v>28</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="64" t="s">
-        <v>39</v>
+      <c r="A10" s="68" t="s">
+        <v>38</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="12"/>
       <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="12"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="64"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="45">
         <f>C10*C11</f>
         <v>0</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64" t="s">
-        <v>40</v>
+      <c r="A13" s="68" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="13" t="s">
@@ -1661,9 +1612,9 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="64"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="13" t="s">
@@ -1672,7 +1623,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="64"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="11" t="s">
         <v>12</v>
       </c>
@@ -1681,7 +1632,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="64"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1692,7 +1643,7 @@
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>23</v>
@@ -1703,11 +1654,11 @@
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="64" t="s">
-        <v>46</v>
+      <c r="A18" s="68" t="s">
+        <v>45</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="15" t="s">
@@ -1716,19 +1667,19 @@
       <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="64"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="15" t="s">
@@ -1736,7 +1687,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="14" t="s">
         <v>15</v>
       </c>
@@ -1746,7 +1697,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="64"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="14" t="s">
         <v>16</v>
       </c>
@@ -1756,7 +1707,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="64"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="14" t="s">
         <v>17</v>
       </c>
@@ -1766,7 +1717,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="64"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="14" t="s">
         <v>18</v>
       </c>
@@ -1776,7 +1727,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="64"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="14" t="s">
         <v>19</v>
       </c>
@@ -1786,7 +1737,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="64"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="14" t="s">
         <v>20</v>
       </c>
@@ -1796,7 +1747,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="14" t="s">
         <v>21</v>
       </c>
@@ -1806,17 +1757,17 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="64" t="s">
-        <v>47</v>
+      <c r="A28" s="68" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="10" t="s">
         <v>22</v>
       </c>
@@ -1825,19 +1776,19 @@
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="59" t="s">
         <v>51</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>52</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:10" s="26" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="82" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="83"/>
+      <c r="A31" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="75"/>
       <c r="C31" s="62">
         <f>SUM(C13:C30)</f>
         <v>0</v>
@@ -1846,17 +1797,17 @@
     </row>
     <row r="32" spans="1:10" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="48"/>
       <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="77" t="s">
-        <v>55</v>
+      <c r="A33" s="69" t="s">
+        <v>54</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>1</v>
@@ -1865,17 +1816,17 @@
       <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="77"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="46"/>
       <c r="D34" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="77"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="18" t="s">
         <v>3</v>
       </c>
@@ -1883,17 +1834,17 @@
       <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="77"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="77"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="18" t="s">
         <v>5</v>
       </c>
@@ -1901,10 +1852,10 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:5" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="78" t="s">
+      <c r="A38" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="79"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="41">
         <f>C12*0.2</f>
         <v>0</v>
@@ -1912,10 +1863,10 @@
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:5" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="81"/>
+      <c r="A39" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="73"/>
       <c r="C39" s="56">
         <f>C12*0.005</f>
         <v>0</v>
@@ -1924,10 +1875,10 @@
       <c r="E39" s="57"/>
     </row>
     <row r="40" spans="1:5" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="81"/>
+      <c r="A40" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="73"/>
       <c r="C40" s="56">
         <f>C31+C32+C33+C34+C36+C37+C38+C39</f>
         <v>0</v>
@@ -1936,10 +1887,10 @@
       <c r="E40" s="57"/>
     </row>
     <row r="41" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="76"/>
+      <c r="A41" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="67"/>
       <c r="C41" s="42">
         <f>C12-C31-C32-C33-C34-C35-C36-C37-C38</f>
         <v>0</v>
@@ -1948,10 +1899,10 @@
     </row>
     <row r="42" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="50">
         <f>C41*0.2</f>
@@ -1960,10 +1911,10 @@
       <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="76"/>
+      <c r="A43" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="67"/>
       <c r="C43" s="43">
         <f>C41-C42</f>
         <v>0</v>
@@ -1971,10 +1922,10 @@
       <c r="D43" s="37"/>
     </row>
     <row r="44" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="74"/>
+      <c r="A44" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="65"/>
       <c r="C44" s="44" t="e">
         <f>C43/C12</f>
         <v>#DIV/0!</v>
@@ -1987,13 +1938,13 @@
         <v>6</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
@@ -2001,7 +1952,7 @@
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="34"/>
@@ -2009,32 +1960,37 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="34"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="34"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="35"/>
       <c r="C49" s="34"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A18:A27"/>
@@ -2045,11 +2001,6 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2057,6 +2008,5 @@
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="44" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="960" windowWidth="28800" windowHeight="16420"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="生产贸易类 -新模板" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>明细</t>
   </si>
@@ -120,10 +120,6 @@
   </si>
   <si>
     <t>含税金额</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>科瑞集团</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1085,21 +1081,69 @@
     <xf numFmtId="176" fontId="25" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1109,64 +1153,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,49 +1183,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect l="2472" t="12946" r="40071" b="30078"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28575" y="114300"/>
-          <a:ext cx="685800" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1523,7 +1476,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="109" zoomScaleNormal="109" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="109" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1539,25 +1492,23 @@
   <sheetData>
     <row r="1" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="64" t="s">
-        <v>29</v>
-      </c>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="65"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="36"/>
@@ -1579,28 +1530,28 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
+        <v>37</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="D8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="E8" s="55" t="s">
         <v>68</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1613,50 +1564,50 @@
       <c r="C9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="83" t="s">
-        <v>76</v>
+      <c r="D9" s="63" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60" t="s">
-        <v>39</v>
+      <c r="A10" s="64" t="s">
+        <v>38</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="12"/>
       <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="12"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="60"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="45">
         <f>C10*C11</f>
         <v>0</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="60" t="s">
-        <v>40</v>
+      <c r="A13" s="64" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="13" t="s">
@@ -1665,9 +1616,9 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="60"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="13" t="s">
@@ -1676,7 +1627,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="60"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="11" t="s">
         <v>12</v>
       </c>
@@ -1685,7 +1636,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="60"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1696,7 +1647,7 @@
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>23</v>
@@ -1707,11 +1658,11 @@
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="60" t="s">
-        <v>46</v>
+      <c r="A18" s="64" t="s">
+        <v>45</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="15" t="s">
@@ -1720,19 +1671,19 @@
       <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="60"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="60"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="15" t="s">
@@ -1740,7 +1691,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="60"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="14" t="s">
         <v>15</v>
       </c>
@@ -1750,7 +1701,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="60"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="14" t="s">
         <v>16</v>
       </c>
@@ -1760,7 +1711,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="60"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="14" t="s">
         <v>17</v>
       </c>
@@ -1770,7 +1721,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="60"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="14" t="s">
         <v>18</v>
       </c>
@@ -1780,7 +1731,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="60"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="14" t="s">
         <v>19</v>
       </c>
@@ -1790,7 +1741,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="60"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="14" t="s">
         <v>20</v>
       </c>
@@ -1800,7 +1751,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="60"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="14" t="s">
         <v>21</v>
       </c>
@@ -1810,17 +1761,17 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="60" t="s">
-        <v>47</v>
+      <c r="A28" s="64" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="60"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="10" t="s">
         <v>22</v>
       </c>
@@ -1828,39 +1779,39 @@
       <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="59" t="s">
         <v>52</v>
-      </c>
-      <c r="B30" s="77" t="s">
-        <v>53</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:10" s="26" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="80">
+        <v>74</v>
+      </c>
+      <c r="B31" s="83"/>
+      <c r="C31" s="62">
         <f>SUM(C13:C30)</f>
         <v>0</v>
       </c>
       <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:10" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="79" t="s">
-        <v>42</v>
+      <c r="A32" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>41</v>
       </c>
       <c r="C32" s="48"/>
       <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="61" t="s">
-        <v>56</v>
+      <c r="A33" s="77" t="s">
+        <v>55</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>1</v>
@@ -1869,17 +1820,17 @@
       <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="61"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="46"/>
       <c r="D34" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="61"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="18" t="s">
         <v>3</v>
       </c>
@@ -1887,17 +1838,17 @@
       <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="61"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="61"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="18" t="s">
         <v>5</v>
       </c>
@@ -1905,47 +1856,47 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:5" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="41">
         <f>C12*0.2</f>
         <v>0</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="74">
+      <c r="A39" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="81"/>
+      <c r="C39" s="56">
         <f>C12*0.005</f>
         <v>0</v>
       </c>
       <c r="D39" s="21"/>
-      <c r="E39" s="75"/>
+      <c r="E39" s="57"/>
     </row>
     <row r="40" spans="1:5" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74">
+      <c r="A40" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="81"/>
+      <c r="C40" s="56">
         <f>C31+C32+C33+C34+C36+C37+C38+C39</f>
         <v>0</v>
       </c>
       <c r="D40" s="21"/>
-      <c r="E40" s="75"/>
+      <c r="E40" s="57"/>
     </row>
     <row r="41" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="59"/>
+      <c r="A41" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="76"/>
       <c r="C41" s="42">
         <f>C12-C31-C32-C33-C34-C35-C36-C37-C38</f>
         <v>0</v>
@@ -1954,10 +1905,10 @@
     </row>
     <row r="42" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="50">
         <f>C41*0.2</f>
@@ -1966,10 +1917,10 @@
       <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="59"/>
+      <c r="A43" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="76"/>
       <c r="C43" s="43">
         <f>C41-C42</f>
         <v>0</v>
@@ -1977,10 +1928,10 @@
       <c r="D43" s="37"/>
     </row>
     <row r="44" spans="1:5" s="17" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="57"/>
+      <c r="A44" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="74"/>
       <c r="C44" s="44" t="e">
         <f>C43/C12</f>
         <v>#DIV/0!</v>
@@ -1993,13 +1944,13 @@
         <v>6</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
@@ -2007,7 +1958,7 @@
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="34"/>
@@ -2015,37 +1966,32 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="34"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="34"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49" s="35"/>
       <c r="C49" s="34"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A18:A27"/>
@@ -2056,6 +2002,11 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2063,6 +2014,5 @@
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="44" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
@@ -976,9 +976,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -1136,16 +1136,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1160,15 +1169,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,35 +1199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1219,7 +1208,41 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1233,32 +1256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1302,13 +1302,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,67 +1380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,25 +1392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,13 +1416,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,31 +1464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1965,21 +1965,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1998,6 +1983,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2029,6 +2029,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2042,165 +2057,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2213,7 +2213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2418,12 +2418,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="3" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2490,9 +2484,6 @@
     <xf numFmtId="43" fontId="12" fillId="0" borderId="3" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="7" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2514,10 +2505,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1">
@@ -3121,15 +3112,15 @@
       </c>
     </row>
     <row r="4" ht="18.35" spans="2:5">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="146"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="143"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="128" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="6"/>
@@ -3137,7 +3128,7 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="129" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="9"/>
@@ -3145,7 +3136,7 @@
       <c r="E6" s="12"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:5">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="130" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="9"/>
@@ -3153,7 +3144,7 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="130" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="9"/>
@@ -3165,7 +3156,7 @@
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="2:7">
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="130" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -3176,7 +3167,7 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="131" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="21" t="s">
@@ -3187,7 +3178,7 @@
       <c r="G10" s="40"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="135"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="21" t="s">
         <v>13</v>
       </c>
@@ -3196,7 +3187,7 @@
       <c r="G11" s="40"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="135"/>
+      <c r="B12" s="132"/>
       <c r="C12" s="21" t="s">
         <v>14</v>
       </c>
@@ -3205,8 +3196,8 @@
       <c r="G12" s="40"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="135"/>
-      <c r="C13" s="136" t="s">
+      <c r="B13" s="132"/>
+      <c r="C13" s="133" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="18"/>
@@ -3214,7 +3205,7 @@
       <c r="G13" s="40"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="131" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="21" t="s">
@@ -3225,7 +3216,7 @@
       <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="135"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="21" t="s">
         <v>18</v>
       </c>
@@ -3233,7 +3224,7 @@
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="135"/>
+      <c r="B16" s="132"/>
       <c r="C16" s="21" t="s">
         <v>19</v>
       </c>
@@ -3241,237 +3232,237 @@
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="135"/>
-      <c r="C17" s="137" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="134" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="135"/>
-      <c r="C18" s="137" t="s">
+      <c r="B18" s="132"/>
+      <c r="C18" s="134" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="135"/>
-      <c r="C19" s="137" t="s">
+      <c r="B19" s="132"/>
+      <c r="C19" s="134" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="29"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="135"/>
-      <c r="C20" s="137"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="21"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="138"/>
-      <c r="C21" s="137"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="21"/>
       <c r="E21" s="29"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="139" t="s">
+      <c r="C22" s="136" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="27"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="132"/>
-      <c r="C23" s="139" t="s">
+      <c r="B23" s="129"/>
+      <c r="C23" s="136" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="27"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="132"/>
-      <c r="C24" s="139" t="s">
+      <c r="B24" s="129"/>
+      <c r="C24" s="136" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="27"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="132"/>
-      <c r="C25" s="139" t="s">
+      <c r="B25" s="129"/>
+      <c r="C25" s="136" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="27"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="132"/>
-      <c r="C26" s="139" t="s">
+      <c r="B26" s="129"/>
+      <c r="C26" s="136" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="27"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="C27" s="134" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="140"/>
-      <c r="C28" s="137" t="s">
+      <c r="B28" s="137"/>
+      <c r="C28" s="134" t="s">
         <v>31</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="27"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="140"/>
-      <c r="C29" s="137" t="s">
+      <c r="B29" s="137"/>
+      <c r="C29" s="134" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="27"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="140"/>
-      <c r="C30" s="137" t="s">
+      <c r="B30" s="137"/>
+      <c r="C30" s="134" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="141" t="s">
+      <c r="B31" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="139" t="s">
+      <c r="C31" s="136" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="27"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="141"/>
-      <c r="C32" s="139" t="s">
+      <c r="B32" s="138"/>
+      <c r="C32" s="136" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="27"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="141"/>
-      <c r="C33" s="139" t="s">
+      <c r="B33" s="138"/>
+      <c r="C33" s="136" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="27"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="141"/>
-      <c r="C34" s="139" t="s">
+      <c r="B34" s="138"/>
+      <c r="C34" s="136" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="27"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="141"/>
-      <c r="C35" s="139" t="s">
+      <c r="B35" s="138"/>
+      <c r="C35" s="136" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="27"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="132" t="s">
+      <c r="B36" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="139" t="s">
+      <c r="C36" s="136" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="132"/>
-      <c r="C37" s="139" t="s">
+      <c r="B37" s="129"/>
+      <c r="C37" s="136" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="132"/>
-      <c r="C38" s="139" t="s">
+      <c r="B38" s="129"/>
+      <c r="C38" s="136" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="27"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="132"/>
-      <c r="C39" s="139" t="s">
+      <c r="B39" s="129"/>
+      <c r="C39" s="136" t="s">
         <v>44</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="27"/>
     </row>
     <row r="40" ht="15" customHeight="1" spans="2:5">
-      <c r="B40" s="141" t="s">
+      <c r="B40" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="136" t="s">
+      <c r="C40" s="133" t="s">
         <v>46</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="27"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="141"/>
-      <c r="C41" s="136" t="s">
+      <c r="B41" s="138"/>
+      <c r="C41" s="133" t="s">
         <v>47</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="27"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="141"/>
-      <c r="C42" s="136" t="s">
+      <c r="B42" s="138"/>
+      <c r="C42" s="133" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="27"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="141"/>
-      <c r="C43" s="136" t="s">
+      <c r="B43" s="138"/>
+      <c r="C43" s="133" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="27"/>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="141"/>
-      <c r="C44" s="136" t="s">
+      <c r="B44" s="138"/>
+      <c r="C44" s="133" t="s">
         <v>50</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="27"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="132" t="s">
+      <c r="B45" s="129" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="21"/>
@@ -3479,7 +3470,7 @@
       <c r="E45" s="27"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="132" t="s">
+      <c r="B46" s="129" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="21"/>
@@ -3487,7 +3478,7 @@
       <c r="E46" s="27"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="132" t="s">
+      <c r="B47" s="129" t="s">
         <v>53</v>
       </c>
       <c r="C47" s="21"/>
@@ -3495,7 +3486,7 @@
       <c r="E47" s="29"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="133" t="s">
+      <c r="B48" s="130" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="9"/>
@@ -3503,12 +3494,12 @@
       <c r="E48" s="29"/>
     </row>
     <row r="49" ht="17.55" spans="2:5">
-      <c r="B49" s="142" t="s">
+      <c r="B49" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="143"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="147"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="141"/>
+      <c r="E49" s="144"/>
     </row>
     <row r="50" ht="17.55" spans="2:5">
       <c r="B50" s="34" t="s">
@@ -3520,7 +3511,7 @@
       <c r="D50" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="148"/>
+      <c r="E50" s="145"/>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="38"/>
@@ -3529,7 +3520,7 @@
       <c r="E51" s="38"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="145"/>
+      <c r="B52" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3565,8 +3556,8 @@
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3587,7 +3578,7 @@
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
-      <c r="E1" s="103"/>
+      <c r="E1" s="100"/>
     </row>
     <row r="2" ht="17.6" spans="1:5">
       <c r="A2" s="50" t="s">
@@ -3596,7 +3587,7 @@
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="101" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3609,7 +3600,7 @@
       <c r="D3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="104"/>
+      <c r="E3" s="101"/>
     </row>
     <row r="4" ht="17.6" spans="1:5">
       <c r="A4" s="53" t="s">
@@ -3618,7 +3609,7 @@
       <c r="B4" s="56"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
-      <c r="E4" s="105"/>
+      <c r="E4" s="102"/>
     </row>
     <row r="5" customFormat="1" ht="17.6" spans="1:5">
       <c r="A5" s="53" t="s">
@@ -3633,7 +3624,7 @@
       <c r="D5" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="103" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3650,7 +3641,7 @@
       <c r="D6" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="104" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3663,8 +3654,8 @@
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="62"/>
-      <c r="E7" s="108"/>
-      <c r="G7" s="109"/>
+      <c r="E7" s="105"/>
+      <c r="G7" s="106"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:7">
       <c r="A8" s="59"/>
@@ -3673,7 +3664,7 @@
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="62"/>
-      <c r="E8" s="108"/>
+      <c r="E8" s="105"/>
       <c r="G8" s="40"/>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:7">
@@ -3686,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="62"/>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="105" t="s">
         <v>76</v>
       </c>
       <c r="G9" s="40"/>
@@ -3700,7 +3691,7 @@
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="62"/>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="107" t="s">
         <v>78</v>
       </c>
       <c r="G10" s="40"/>
@@ -3712,7 +3703,7 @@
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="62"/>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="107" t="s">
         <v>78</v>
       </c>
       <c r="G11" s="40"/>
@@ -3729,14 +3720,14 @@
         <v>0</v>
       </c>
       <c r="D12" s="64"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112">
+      <c r="E12" s="108"/>
+      <c r="F12" s="109">
         <v>0.13</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="128"/>
+      <c r="K12" s="125"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:11">
       <c r="A13" s="59" t="s">
@@ -3747,10 +3738,10 @@
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="64"/>
-      <c r="E13" s="111" t="s">
+      <c r="E13" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="128"/>
+      <c r="K13" s="125"/>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:5">
       <c r="A14" s="59"/>
@@ -3759,7 +3750,7 @@
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="64"/>
-      <c r="E14" s="111" t="s">
+      <c r="E14" s="108" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3770,7 +3761,7 @@
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="64"/>
-      <c r="E15" s="111" t="s">
+      <c r="E15" s="108" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3781,7 +3772,7 @@
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="64"/>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="108" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3792,7 +3783,7 @@
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="64"/>
-      <c r="E17" s="111" t="s">
+      <c r="E17" s="108" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3803,7 +3794,7 @@
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="52"/>
-      <c r="E18" s="111" t="s">
+      <c r="E18" s="108" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3814,7 +3805,7 @@
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="64"/>
-      <c r="E19" s="111" t="s">
+      <c r="E19" s="108" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3825,7 +3816,7 @@
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="64"/>
-      <c r="E20" s="111" t="s">
+      <c r="E20" s="108" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3836,7 +3827,7 @@
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="52"/>
-      <c r="E21" s="111" t="s">
+      <c r="E21" s="108" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3847,7 +3838,7 @@
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="64"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="108" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3860,8 +3851,8 @@
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="64"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="109"/>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:5">
       <c r="A24" s="59"/>
@@ -3870,7 +3861,7 @@
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="64"/>
-      <c r="E24" s="111"/>
+      <c r="E24" s="108"/>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:5">
       <c r="A25" s="59" t="s">
@@ -3881,87 +3872,87 @@
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="64"/>
-      <c r="E25" s="111"/>
+      <c r="E25" s="108"/>
     </row>
     <row r="26" s="41" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A26" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="69" t="e">
+      <c r="C26" s="65" t="e">
         <f>C9*F26</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="113" t="s">
+      <c r="D26" s="68"/>
+      <c r="E26" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="114" t="s">
+      <c r="F26" s="111" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" s="42" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73">
+      <c r="B27" s="70"/>
+      <c r="C27" s="71">
         <f>SUM(C10:C25)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="72">
         <f>SUM(D10:D25)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="115"/>
+      <c r="E27" s="112"/>
     </row>
     <row r="28" s="43" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="77">
+      <c r="B28" s="74"/>
+      <c r="C28" s="75">
         <f>C27*0.05</f>
         <v>0</v>
       </c>
-      <c r="D28" s="78">
+      <c r="D28" s="76">
         <f>D27*0.05</f>
         <v>0</v>
       </c>
-      <c r="E28" s="116" t="s">
+      <c r="E28" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="112">
+      <c r="F28" s="109">
         <v>0.05</v>
       </c>
     </row>
     <row r="29" s="44" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="117"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="114"/>
     </row>
     <row r="30" s="44" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A30" s="79"/>
-      <c r="B30" s="80" t="s">
+      <c r="A30" s="77"/>
+      <c r="B30" s="78" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="61" t="e">
         <f>C27*(0.07/360)*F30</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D30" s="82" t="e">
+      <c r="D30" s="80" t="e">
         <f>D27/(0.07/360)*F30</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E30" s="118" t="s">
+      <c r="E30" s="115" t="s">
         <v>107</v>
       </c>
       <c r="F30" s="45" t="s">
@@ -3969,150 +3960,151 @@
       </c>
     </row>
     <row r="31" s="44" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="118" t="s">
+      <c r="C31" s="79"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="115" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="32" s="44" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A32" s="79"/>
-      <c r="B32" s="80" t="s">
+      <c r="A32" s="77"/>
+      <c r="B32" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="117"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="114"/>
     </row>
     <row r="33" s="43" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="119" t="s">
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="112" t="s">
+      <c r="F33" s="109" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" s="43" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="77" t="e">
+      <c r="B34" s="82"/>
+      <c r="C34" s="75" t="e">
         <f>C27+C26+C29+C30+C31+C32+C28+C33</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D34" s="78"/>
-      <c r="F34" s="112"/>
+      <c r="D34" s="76"/>
+      <c r="F34" s="109"/>
     </row>
     <row r="35" s="44" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="87" t="e">
+      <c r="B35" s="84"/>
+      <c r="C35" s="85" t="e">
         <f>C9-C34</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D35" s="88">
+      <c r="D35" s="86">
         <f>D9-D34</f>
         <v>0</v>
       </c>
-      <c r="E35" s="120" t="s">
+      <c r="E35" s="117" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36" s="44" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="90" t="s">
+      <c r="B36" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="91" t="e">
+      <c r="C36" s="89" t="e">
         <f>C35*0.15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="80">
         <f>D35*0.2</f>
         <v>0</v>
       </c>
-      <c r="E36" s="118" t="s">
+      <c r="E36" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="121">
+      <c r="F36" s="118">
         <v>0.15</v>
       </c>
       <c r="G36" s="43"/>
     </row>
     <row r="37" s="45" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A37" s="89"/>
-      <c r="B37" s="92" t="s">
+      <c r="A37" s="87"/>
+      <c r="B37" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="93" t="e">
+      <c r="C37" s="90" t="e">
         <f>C35*20%</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D37" s="94"/>
-      <c r="E37" s="122" t="s">
+      <c r="D37" s="91"/>
+      <c r="E37" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="123" t="s">
+      <c r="F37" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="G37" s="124" t="s">
+      <c r="G37" s="121" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="38" s="44" customFormat="1" ht="25.5" customHeight="1" spans="1:5">
-      <c r="A38" s="85" t="s">
+      <c r="A38" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="95" t="e">
+      <c r="B38" s="84"/>
+      <c r="C38" s="92" t="e">
         <f>C35-C36-C37</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D38" s="95">
+      <c r="D38" s="92">
         <f>D35-D36</f>
         <v>0</v>
       </c>
-      <c r="E38" s="125"/>
+      <c r="E38" s="122"/>
     </row>
     <row r="39" s="44" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="98" t="e">
+      <c r="B39" s="94"/>
+      <c r="C39" s="95" t="e">
         <f>C38/C9</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D39" s="98" t="e">
+      <c r="D39" s="95" t="e">
         <f>D38/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="126"/>
+      <c r="E39" s="123"/>
     </row>
     <row r="40" s="46" customFormat="1" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A40" s="99" t="s">
+      <c r="A40" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="B40" s="97"/>
+      <c r="C40" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="101"/>
-      <c r="E40" s="127" t="s">
+      <c r="D40" s="97"/>
+      <c r="E40" s="124" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4146,7 +4138,7 @@
       <c r="C44" s="37"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="99" t="s">
         <v>127</v>
       </c>
     </row>

--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/报价利润核算单.xlsx
@@ -975,10 +975,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -1123,13 +1123,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1144,17 +1137,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1168,11 +1197,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1192,20 +1221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1215,9 +1230,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1235,30 +1258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,13 +1290,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,7 +1344,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,115 +1440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,19 +1452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,13 +1464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1978,15 +1978,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1998,6 +1989,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2029,21 +2044,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2062,130 +2062,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2194,19 +2194,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2527,7 +2527,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3556,8 +3556,8 @@
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3586,10 +3586,10 @@
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="101" t="s">
+      <c r="D2" s="52" t="s">
         <v>61</v>
       </c>
+      <c r="E2" s="101"/>
     </row>
     <row r="3" ht="17.6" spans="1:5">
       <c r="A3" s="53" t="s">
@@ -3672,10 +3672,7 @@
       <c r="B9" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="61">
-        <f>C7*C8</f>
-        <v>0</v>
-      </c>
+      <c r="C9" s="61"/>
       <c r="D9" s="62"/>
       <c r="E9" s="105" t="s">
         <v>76</v>
@@ -3715,10 +3712,7 @@
       <c r="B12" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="61">
-        <f>-C10/1.13*F12</f>
-        <v>0</v>
-      </c>
+      <c r="C12" s="61"/>
       <c r="D12" s="64"/>
       <c r="E12" s="108"/>
       <c r="F12" s="109">
@@ -3881,10 +3875,7 @@
       <c r="B26" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="65" t="e">
-        <f>C9*F26</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="C26" s="65"/>
       <c r="D26" s="68"/>
       <c r="E26" s="110" t="s">
         <v>102</v>
@@ -3898,14 +3889,8 @@
         <v>103</v>
       </c>
       <c r="B27" s="70"/>
-      <c r="C27" s="71">
-        <f>SUM(C10:C25)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="72">
-        <f>SUM(D10:D25)</f>
-        <v>0</v>
-      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="112"/>
     </row>
     <row r="28" s="43" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -3913,14 +3898,8 @@
         <v>104</v>
       </c>
       <c r="B28" s="74"/>
-      <c r="C28" s="75">
-        <f>C27*0.05</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="76">
-        <f>D27*0.05</f>
-        <v>0</v>
-      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="113" t="s">
         <v>105</v>
       </c>
@@ -3944,14 +3923,8 @@
       <c r="B30" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="61" t="e">
-        <f>C27*(0.07/360)*F30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D30" s="80" t="e">
-        <f>D27/(0.07/360)*F30</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="80"/>
       <c r="E30" s="115" t="s">
         <v>107</v>
       </c>
@@ -3998,10 +3971,7 @@
         <v>112</v>
       </c>
       <c r="B34" s="82"/>
-      <c r="C34" s="75" t="e">
-        <f>C27+C26+C29+C30+C31+C32+C28+C33</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="C34" s="75"/>
       <c r="D34" s="76"/>
       <c r="F34" s="109"/>
     </row>
@@ -4010,14 +3980,8 @@
         <v>113</v>
       </c>
       <c r="B35" s="84"/>
-      <c r="C35" s="85" t="e">
-        <f>C9-C34</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D35" s="86">
-        <f>D9-D34</f>
-        <v>0</v>
-      </c>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="117" t="s">
         <v>114</v>
       </c>
@@ -4029,14 +3993,8 @@
       <c r="B36" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="89" t="e">
-        <f>C35*0.15</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D36" s="80">
-        <f>D35*0.2</f>
-        <v>0</v>
-      </c>
+      <c r="C36" s="89"/>
+      <c r="D36" s="80"/>
       <c r="E36" s="115" t="s">
         <v>117</v>
       </c>
@@ -4050,10 +4008,7 @@
       <c r="B37" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="90" t="e">
-        <f>C35*20%</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="C37" s="90"/>
       <c r="D37" s="91"/>
       <c r="E37" s="119" t="s">
         <v>119</v>
@@ -4070,14 +4025,8 @@
         <v>121</v>
       </c>
       <c r="B38" s="84"/>
-      <c r="C38" s="92" t="e">
-        <f>C35-C36-C37</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D38" s="92">
-        <f>D35-D36</f>
-        <v>0</v>
-      </c>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="122"/>
     </row>
     <row r="39" s="44" customFormat="1" ht="18.75" customHeight="1" spans="1:5">
@@ -4085,14 +4034,8 @@
         <v>122</v>
       </c>
       <c r="B39" s="94"/>
-      <c r="C39" s="95" t="e">
-        <f>C38/C9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D39" s="95" t="e">
-        <f>D38/D9</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
       <c r="E39" s="123"/>
     </row>
     <row r="40" s="46" customFormat="1" ht="16.5" customHeight="1" spans="1:5">
